--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>9.683207498469372</v>
+        <v>9.06062928116844</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.51216882042989</v>
+        <v>12.90171718766424</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.48982038120798</v>
+        <v>14.3348580391068</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15.77950013305547</v>
+        <v>16.02041234664377</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2714711113060719</v>
+        <v>0.2508057957560928</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3338902992786097</v>
+        <v>0.3447220582701782</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3975511941715713</v>
+        <v>0.3920217826974</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3492066315892742</v>
+        <v>0.3435964034624548</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.48250899198732</v>
+        <v>17.39181954820577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.45899533074162</v>
+        <v>21.45969034172288</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.5291165799654</v>
+        <v>23.5245267021172</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.1343820576032</v>
+        <v>25.69000959924913</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5481177617067781</v>
+        <v>0.5658212865220078</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6595282597517936</v>
+        <v>0.6617226641214086</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7521647100328701</v>
+        <v>0.7413395322853349</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6452470142822417</v>
+        <v>0.6528674067509467</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.888206566307089</v>
+        <v>4.415951762844839</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.18298460538712</v>
+        <v>5.262017089511035</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.429420861828159</v>
+        <v>2.292288204716897</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.634065198489828</v>
+        <v>3.298933033059408</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3140497150620913</v>
+        <v>0.3534298906198631</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3637867325044728</v>
+        <v>0.379563618355471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1389835171196955</v>
+        <v>0.1369033858720615</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1376595839820865</v>
+        <v>0.1251567224727589</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.1805966788703</v>
+        <v>9.371087725186733</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.37965546147106</v>
+        <v>10.4969048085927</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.54077016497903</v>
+        <v>7.350543943065651</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.644283147043646</v>
+        <v>8.566794742456624</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.886733476966345</v>
+        <v>0.9008903990088434</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8699683152525004</v>
+        <v>0.8889958356375071</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5298755282781489</v>
+        <v>0.5006400941103539</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3659393150748204</v>
+        <v>0.3676888844038976</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.141072460145816</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.504658497862235</v>
+        <v>7.504658497862238</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6539686296694616</v>
@@ -849,7 +849,7 @@
         <v>0.630281556401169</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4011192539240936</v>
+        <v>0.4011192539240939</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.416797209441974</v>
+        <v>2.547573838330935</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.132855865634396</v>
+        <v>-3.784331352288893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.710244958399863</v>
+        <v>1.672393794443392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.554046381411752</v>
+        <v>3.298789676738834</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1771817641278643</v>
+        <v>0.2092683716793493</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.310484227428266</v>
+        <v>-0.2909520934072206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1275816798510266</v>
+        <v>0.1284884320432058</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1744725423972995</v>
+        <v>0.1511560791220522</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.16975900102846</v>
+        <v>11.05954548925938</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.697175494910457</v>
+        <v>4.981146455529397</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.34619573227777</v>
+        <v>10.34383968031338</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.52484650229397</v>
+        <v>11.54414057846448</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.303559919226327</v>
+        <v>1.348469086399045</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.590445709361144</v>
+        <v>0.5707831350655607</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.299534334031662</v>
+        <v>1.361860372852653</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6939133088219217</v>
+        <v>0.7034180205428302</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.26433806042254</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10.56825171244141</v>
+        <v>10.56825171244139</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6061068930643035</v>
@@ -949,7 +949,7 @@
         <v>0.5503572794967976</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3985010088979497</v>
+        <v>0.3985010088979492</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.106364460019829</v>
+        <v>9.069812110886327</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.16736482955133</v>
+        <v>10.32351587350475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8.283028727288608</v>
+        <v>7.953964622792284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8.366948610706757</v>
+        <v>8.440313942410238</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4787811522119808</v>
+        <v>0.4739062632373653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5096220967935462</v>
+        <v>0.513919394439842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4230628953667163</v>
+        <v>0.4009197990333148</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3016101521673963</v>
+        <v>0.3028541344926806</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.10185231098269</v>
+        <v>13.15484631881396</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>14.30337575517628</v>
+        <v>14.67867482530207</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.35768286348206</v>
+        <v>12.3215843327124</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.45293516354801</v>
+        <v>12.56608831887357</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7674264391248016</v>
+        <v>0.765723490300423</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8083924218501717</v>
+        <v>0.8322507039560679</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6967069105014468</v>
+        <v>0.6917028560726947</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4864315523061224</v>
+        <v>0.4947694964219094</v>
       </c>
     </row>
     <row r="16">
